--- a/natmiOut/OldD7/LR-pairs_lrc2p/Anxa2-Robo4.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Anxa2-Robo4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,57 +531,57 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>75.8344165408237</v>
+        <v>98.47161033333335</v>
       </c>
       <c r="H2">
-        <v>75.8344165408237</v>
+        <v>295.414831</v>
       </c>
       <c r="I2">
-        <v>0.2504417783806903</v>
+        <v>0.272681344498213</v>
       </c>
       <c r="J2">
-        <v>0.2504417783806903</v>
+        <v>0.2726813444982129</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>43.1556430595094</v>
+        <v>43.55927533333334</v>
       </c>
       <c r="N2">
-        <v>43.1556430595094</v>
+        <v>130.677826</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9894183625413969</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9894183625413967</v>
       </c>
       <c r="Q2">
-        <v>3272.683011861943</v>
+        <v>4289.35198702638</v>
       </c>
       <c r="R2">
-        <v>3272.683011861943</v>
+        <v>38604.16788323742</v>
       </c>
       <c r="S2">
-        <v>0.2504417783806903</v>
+        <v>0.2697959293690084</v>
       </c>
       <c r="T2">
-        <v>0.2504417783806903</v>
+        <v>0.2697959293690083</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>110.454650325059</v>
+        <v>98.47161033333335</v>
       </c>
       <c r="H3">
-        <v>110.454650325059</v>
+        <v>295.414831</v>
       </c>
       <c r="I3">
-        <v>0.3647744694248901</v>
+        <v>0.272681344498213</v>
       </c>
       <c r="J3">
-        <v>0.3647744694248901</v>
+        <v>0.2726813444982129</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>43.1556430595094</v>
+        <v>0.205596</v>
       </c>
       <c r="N3">
-        <v>43.1556430595094</v>
+        <v>0.616788</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.004669968820840217</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.004669968820840216</v>
       </c>
       <c r="Q3">
-        <v>4766.741463691171</v>
+        <v>20.245369198092</v>
       </c>
       <c r="R3">
-        <v>4766.741463691171</v>
+        <v>182.208322782828</v>
       </c>
       <c r="S3">
-        <v>0.3647744694248901</v>
+        <v>0.001273413376831445</v>
       </c>
       <c r="T3">
-        <v>0.3647744694248901</v>
+        <v>0.001273413376831444</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>51.7171642719842</v>
+        <v>98.47161033333335</v>
       </c>
       <c r="H4">
-        <v>51.7171642719842</v>
+        <v>295.414831</v>
       </c>
       <c r="I4">
-        <v>0.1707949923516526</v>
+        <v>0.272681344498213</v>
       </c>
       <c r="J4">
-        <v>0.1707949923516526</v>
+        <v>0.2726813444982129</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>43.1556430595094</v>
+        <v>0.260262</v>
       </c>
       <c r="N4">
-        <v>43.1556430595094</v>
+        <v>0.780786</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.005911668637762975</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.005911668637762974</v>
       </c>
       <c r="Q4">
-        <v>2231.887481371763</v>
+        <v>25.628418248574</v>
       </c>
       <c r="R4">
-        <v>2231.887481371763</v>
+        <v>230.655764237166</v>
       </c>
       <c r="S4">
-        <v>0.1707949923516526</v>
+        <v>0.001612001752373127</v>
       </c>
       <c r="T4">
-        <v>0.1707949923516526</v>
+        <v>0.001612001752373127</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,52 +717,548 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>64.7963484922365</v>
+        <v>113.1680936666667</v>
       </c>
       <c r="H5">
-        <v>64.7963484922365</v>
+        <v>339.504281</v>
       </c>
       <c r="I5">
-        <v>0.2139887598427669</v>
+        <v>0.3133779150241075</v>
       </c>
       <c r="J5">
-        <v>0.2139887598427669</v>
+        <v>0.3133779150241075</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>43.1556430595094</v>
+        <v>43.55927533333334</v>
       </c>
       <c r="N5">
-        <v>43.1556430595094</v>
+        <v>130.677826</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.9894183625413969</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.9894183625413967</v>
       </c>
       <c r="Q5">
-        <v>2796.328087090539</v>
+        <v>4929.52015097479</v>
       </c>
       <c r="R5">
-        <v>2796.328087090539</v>
+        <v>44365.68135877311</v>
       </c>
       <c r="S5">
-        <v>0.2139887598427669</v>
+        <v>0.3100618635397895</v>
       </c>
       <c r="T5">
-        <v>0.2139887598427669</v>
+        <v>0.3100618635397894</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>113.1680936666667</v>
+      </c>
+      <c r="H6">
+        <v>339.504281</v>
+      </c>
+      <c r="I6">
+        <v>0.3133779150241075</v>
+      </c>
+      <c r="J6">
+        <v>0.3133779150241075</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.205596</v>
+      </c>
+      <c r="N6">
+        <v>0.616788</v>
+      </c>
+      <c r="O6">
+        <v>0.004669968820840217</v>
+      </c>
+      <c r="P6">
+        <v>0.004669968820840216</v>
+      </c>
+      <c r="Q6">
+        <v>23.266907385492</v>
+      </c>
+      <c r="R6">
+        <v>209.402166469428</v>
+      </c>
+      <c r="S6">
+        <v>0.001463465092302497</v>
+      </c>
+      <c r="T6">
+        <v>0.001463465092302497</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>113.1680936666667</v>
+      </c>
+      <c r="H7">
+        <v>339.504281</v>
+      </c>
+      <c r="I7">
+        <v>0.3133779150241075</v>
+      </c>
+      <c r="J7">
+        <v>0.3133779150241075</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.260262</v>
+      </c>
+      <c r="N7">
+        <v>0.780786</v>
+      </c>
+      <c r="O7">
+        <v>0.005911668637762975</v>
+      </c>
+      <c r="P7">
+        <v>0.005911668637762974</v>
+      </c>
+      <c r="Q7">
+        <v>29.453354393874</v>
+      </c>
+      <c r="R7">
+        <v>265.080189544866</v>
+      </c>
+      <c r="S7">
+        <v>0.001852586392015567</v>
+      </c>
+      <c r="T7">
+        <v>0.001852586392015567</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>58.24795766666667</v>
+      </c>
+      <c r="H8">
+        <v>174.743873</v>
+      </c>
+      <c r="I8">
+        <v>0.1612965539718111</v>
+      </c>
+      <c r="J8">
+        <v>0.1612965539718111</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>43.55927533333334</v>
+      </c>
+      <c r="N8">
+        <v>130.677826</v>
+      </c>
+      <c r="O8">
+        <v>0.9894183625413969</v>
+      </c>
+      <c r="P8">
+        <v>0.9894183625413967</v>
+      </c>
+      <c r="Q8">
+        <v>2537.238825606678</v>
+      </c>
+      <c r="R8">
+        <v>22835.1494304601</v>
+      </c>
+      <c r="S8">
+        <v>0.1595897723143594</v>
+      </c>
+      <c r="T8">
+        <v>0.1595897723143594</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>58.24795766666667</v>
+      </c>
+      <c r="H9">
+        <v>174.743873</v>
+      </c>
+      <c r="I9">
+        <v>0.1612965539718111</v>
+      </c>
+      <c r="J9">
+        <v>0.1612965539718111</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.205596</v>
+      </c>
+      <c r="N9">
+        <v>0.616788</v>
+      </c>
+      <c r="O9">
+        <v>0.004669968820840217</v>
+      </c>
+      <c r="P9">
+        <v>0.004669968820840216</v>
+      </c>
+      <c r="Q9">
+        <v>11.975547104436</v>
+      </c>
+      <c r="R9">
+        <v>107.779923939924</v>
+      </c>
+      <c r="S9">
+        <v>0.0007532498779573293</v>
+      </c>
+      <c r="T9">
+        <v>0.0007532498779573291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>58.24795766666667</v>
+      </c>
+      <c r="H10">
+        <v>174.743873</v>
+      </c>
+      <c r="I10">
+        <v>0.1612965539718111</v>
+      </c>
+      <c r="J10">
+        <v>0.1612965539718111</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.260262</v>
+      </c>
+      <c r="N10">
+        <v>0.780786</v>
+      </c>
+      <c r="O10">
+        <v>0.005911668637762975</v>
+      </c>
+      <c r="P10">
+        <v>0.005911668637762974</v>
+      </c>
+      <c r="Q10">
+        <v>15.159729958242</v>
+      </c>
+      <c r="R10">
+        <v>136.437569624178</v>
+      </c>
+      <c r="S10">
+        <v>0.0009535317794943989</v>
+      </c>
+      <c r="T10">
+        <v>0.0009535317794943987</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>91.235724</v>
+      </c>
+      <c r="H11">
+        <v>273.707172</v>
+      </c>
+      <c r="I11">
+        <v>0.2526441865058685</v>
+      </c>
+      <c r="J11">
+        <v>0.2526441865058685</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>43.55927533333334</v>
+      </c>
+      <c r="N11">
+        <v>130.677826</v>
+      </c>
+      <c r="O11">
+        <v>0.9894183625413969</v>
+      </c>
+      <c r="P11">
+        <v>0.9894183625413967</v>
+      </c>
+      <c r="Q11">
+        <v>3974.162021952009</v>
+      </c>
+      <c r="R11">
+        <v>35767.45819756808</v>
+      </c>
+      <c r="S11">
+        <v>0.2499707973182397</v>
+      </c>
+      <c r="T11">
+        <v>0.2499707973182396</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>91.235724</v>
+      </c>
+      <c r="H12">
+        <v>273.707172</v>
+      </c>
+      <c r="I12">
+        <v>0.2526441865058685</v>
+      </c>
+      <c r="J12">
+        <v>0.2526441865058685</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.205596</v>
+      </c>
+      <c r="N12">
+        <v>0.616788</v>
+      </c>
+      <c r="O12">
+        <v>0.004669968820840217</v>
+      </c>
+      <c r="P12">
+        <v>0.004669968820840216</v>
+      </c>
+      <c r="Q12">
+        <v>18.757699911504</v>
+      </c>
+      <c r="R12">
+        <v>168.819299203536</v>
+      </c>
+      <c r="S12">
+        <v>0.001179840473748947</v>
+      </c>
+      <c r="T12">
+        <v>0.001179840473748946</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>91.235724</v>
+      </c>
+      <c r="H13">
+        <v>273.707172</v>
+      </c>
+      <c r="I13">
+        <v>0.2526441865058685</v>
+      </c>
+      <c r="J13">
+        <v>0.2526441865058685</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.260262</v>
+      </c>
+      <c r="N13">
+        <v>0.780786</v>
+      </c>
+      <c r="O13">
+        <v>0.005911668637762975</v>
+      </c>
+      <c r="P13">
+        <v>0.005911668637762974</v>
+      </c>
+      <c r="Q13">
+        <v>23.745191999688</v>
+      </c>
+      <c r="R13">
+        <v>213.706727997192</v>
+      </c>
+      <c r="S13">
+        <v>0.001493548713879882</v>
+      </c>
+      <c r="T13">
+        <v>0.001493548713879882</v>
       </c>
     </row>
   </sheetData>
